--- a/data/excel2/new_table_2.xlsx
+++ b/data/excel2/new_table_2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinten/WorkSpaces/GitHub/kinten0902/python/elml/data/excel2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinten/WorkSpaces/github/cscl/data/excel2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07E073ED-9656-5249-BCDB-5BF4722C381D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="2520" windowWidth="38000" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
   <si>
     <t>off task</t>
   </si>
@@ -90,13 +91,40 @@
   </si>
   <si>
     <t>評価と発言数の相関係数</t>
+  </si>
+  <si>
+    <t>提出物評価と平均発言数（ラベル別）</t>
+  </si>
+  <si>
+    <t>(a)総合</t>
+  </si>
+  <si>
+    <t>評価</t>
+  </si>
+  <si>
+    <t>良い</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>悪い</t>
+  </si>
+  <si>
+    <t>(b)具体性</t>
+  </si>
+  <si>
+    <t>(c)工夫</t>
+  </si>
+  <si>
+    <t>(d)適切性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,20 +133,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,14 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +182,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -428,14 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
@@ -448,507 +472,1332 @@
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>22.7</v>
+      </c>
+      <c r="C5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D5">
+        <v>61.4</v>
+      </c>
+      <c r="E5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F5">
+        <v>27.6</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>61.4</v>
+      </c>
+      <c r="I5">
+        <v>53.7</v>
+      </c>
+      <c r="J5">
+        <v>7.4</v>
+      </c>
+      <c r="K5">
+        <v>0.3</v>
+      </c>
+      <c r="L5">
+        <v>61.4</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>51.4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>23.2</v>
+      </c>
+      <c r="C6">
+        <v>35.4</v>
+      </c>
+      <c r="D6">
+        <v>58.6</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>22.9</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
+        <v>58.6</v>
+      </c>
+      <c r="I6">
+        <v>50.4</v>
+      </c>
+      <c r="J6">
+        <v>7.8</v>
+      </c>
+      <c r="K6">
+        <v>0.3</v>
+      </c>
+      <c r="L6">
+        <v>58.6</v>
+      </c>
+      <c r="M6">
+        <v>9.4</v>
+      </c>
+      <c r="N6">
+        <v>46.4</v>
+      </c>
+      <c r="O6">
+        <v>2.8</v>
+      </c>
+      <c r="P6">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>24.7</v>
+      </c>
+      <c r="C7">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D7">
+        <v>58.4</v>
+      </c>
+      <c r="E7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F7">
+        <v>22.2</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>58.4</v>
+      </c>
+      <c r="I7">
+        <v>50.5</v>
+      </c>
+      <c r="J7">
+        <v>7.5</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+      <c r="L7">
+        <v>58.4</v>
+      </c>
+      <c r="M7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N7">
+        <v>44.9</v>
+      </c>
+      <c r="O7">
+        <v>4.3</v>
+      </c>
+      <c r="P7">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>22.6</v>
+      </c>
+      <c r="C11">
+        <v>40.6</v>
+      </c>
+      <c r="D11">
+        <v>63.2</v>
+      </c>
+      <c r="E11">
+        <v>34.4</v>
+      </c>
+      <c r="F11">
+        <v>28.3</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>63.2</v>
+      </c>
+      <c r="I11">
+        <v>54.1</v>
+      </c>
+      <c r="J11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11">
+        <v>63.2</v>
+      </c>
+      <c r="M11">
+        <v>8.4</v>
+      </c>
+      <c r="N11">
+        <v>52.4</v>
+      </c>
+      <c r="O11">
+        <v>2.4</v>
+      </c>
+      <c r="P11">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>23.7</v>
+      </c>
+      <c r="C12">
+        <v>33.5</v>
+      </c>
+      <c r="D12">
+        <v>57.2</v>
+      </c>
+      <c r="E12">
+        <v>34.9</v>
+      </c>
+      <c r="F12">
+        <v>21.8</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>57.2</v>
+      </c>
+      <c r="I12">
+        <v>49.9</v>
+      </c>
+      <c r="J12">
+        <v>6.9</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+      <c r="L12">
+        <v>57.2</v>
+      </c>
+      <c r="M12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N12">
+        <v>45.1</v>
+      </c>
+      <c r="O12">
+        <v>2.9</v>
+      </c>
+      <c r="P12">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>24.4</v>
+      </c>
+      <c r="C13">
+        <v>33.9</v>
+      </c>
+      <c r="D13">
+        <v>58.3</v>
+      </c>
+      <c r="E13">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F13">
+        <v>22.1</v>
+      </c>
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>58.3</v>
+      </c>
+      <c r="I13">
+        <v>50.3</v>
+      </c>
+      <c r="J13">
+        <v>7.7</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <v>58.3</v>
+      </c>
+      <c r="M13">
+        <v>9.4</v>
+      </c>
+      <c r="N13">
+        <v>44.7</v>
+      </c>
+      <c r="O13">
+        <v>4.2</v>
+      </c>
+      <c r="P13">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>23.8</v>
+      </c>
+      <c r="C17">
+        <v>39.6</v>
+      </c>
+      <c r="D17">
+        <v>63.5</v>
+      </c>
+      <c r="E17">
+        <v>38.1</v>
+      </c>
+      <c r="F17">
+        <v>24.9</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>63.5</v>
+      </c>
+      <c r="I17">
+        <v>54.3</v>
+      </c>
+      <c r="J17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
+      <c r="L17">
+        <v>63.5</v>
+      </c>
+      <c r="M17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N17">
+        <v>51.8</v>
+      </c>
+      <c r="O17">
+        <v>2.8</v>
+      </c>
+      <c r="P17">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>25.3</v>
+      </c>
+      <c r="C18">
+        <v>35.9</v>
+      </c>
+      <c r="D18">
+        <v>61.2</v>
+      </c>
+      <c r="E18">
+        <v>35.9</v>
+      </c>
+      <c r="F18">
+        <v>24.7</v>
+      </c>
+      <c r="G18">
+        <v>0.6</v>
+      </c>
+      <c r="H18">
+        <v>61.2</v>
+      </c>
+      <c r="I18">
+        <v>52.7</v>
+      </c>
+      <c r="J18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K18">
+        <v>0.3</v>
+      </c>
+      <c r="L18">
+        <v>61.2</v>
+      </c>
+      <c r="M18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N18">
+        <v>48.8</v>
+      </c>
+      <c r="O18">
+        <v>3.2</v>
+      </c>
+      <c r="P18">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>21.5</v>
+      </c>
+      <c r="C19">
+        <v>30.1</v>
+      </c>
+      <c r="D19">
+        <v>51.6</v>
+      </c>
+      <c r="E19">
+        <v>31.4</v>
+      </c>
+      <c r="F19">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.4</v>
+      </c>
+      <c r="H19">
+        <v>51.6</v>
+      </c>
+      <c r="I19">
+        <v>45.5</v>
+      </c>
+      <c r="J19">
+        <v>5.7</v>
+      </c>
+      <c r="K19">
+        <v>0.4</v>
+      </c>
+      <c r="L19">
+        <v>51.6</v>
+      </c>
+      <c r="M19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N19">
+        <v>38.6</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>21.2</v>
+      </c>
+      <c r="C23">
+        <v>36.9</v>
+      </c>
+      <c r="D23">
+        <v>58.2</v>
+      </c>
+      <c r="E23">
+        <v>31.4</v>
+      </c>
+      <c r="F23">
+        <v>26.4</v>
+      </c>
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23">
+        <v>58.2</v>
+      </c>
+      <c r="I23">
+        <v>50.2</v>
+      </c>
+      <c r="J23">
+        <v>7.8</v>
+      </c>
+      <c r="K23">
+        <v>0.2</v>
+      </c>
+      <c r="L23">
+        <v>58.2</v>
+      </c>
+      <c r="M23">
+        <v>7.5</v>
+      </c>
+      <c r="N23">
+        <v>48.7</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>24.9</v>
+      </c>
+      <c r="C24">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D24">
+        <v>58.2</v>
+      </c>
+      <c r="E24">
+        <v>36.5</v>
+      </c>
+      <c r="F24">
+        <v>21.1</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>58.2</v>
+      </c>
+      <c r="I24">
+        <v>49.8</v>
+      </c>
+      <c r="J24">
+        <v>7.9</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>58.2</v>
+      </c>
+      <c r="M24">
+        <v>10.1</v>
+      </c>
+      <c r="N24">
+        <v>44.3</v>
+      </c>
+      <c r="O24">
+        <v>3.8</v>
+      </c>
+      <c r="P24">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>23.8</v>
+      </c>
+      <c r="C25">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D25">
+        <v>62.1</v>
+      </c>
+      <c r="E25">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F25">
+        <v>25.4</v>
+      </c>
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="H25">
+        <v>62.1</v>
+      </c>
+      <c r="I25">
+        <v>55.2</v>
+      </c>
+      <c r="J25">
+        <v>6.8</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <v>62.1</v>
+      </c>
+      <c r="M25">
+        <v>8.6</v>
+      </c>
+      <c r="N25">
+        <v>49.9</v>
+      </c>
+      <c r="O25">
+        <v>3.7</v>
+      </c>
+      <c r="P25">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="31" spans="1:16" ht="17">
+      <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B32">
         <v>-0.09</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C32">
         <v>0.11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D32">
         <v>0.04</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E32">
         <v>-0.05</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G32">
         <v>-0.05</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H32">
         <v>0.04</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I32">
         <v>0.05</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J32">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K32">
         <v>-0.06</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L32">
         <v>0.04</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M32">
         <v>-0.08</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N32">
         <v>0.11</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O32" s="3">
         <v>-0.37</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P32">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B33">
         <v>-0.08</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C33">
         <v>0.15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E33">
         <v>-0.04</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F33">
         <v>0.18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G33">
         <v>0.03</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J33">
         <v>0.06</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K33">
         <v>-0.02</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M33">
         <v>-0.1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O33" s="3">
         <v>-0.31</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P33">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B34">
         <v>0.11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C34" s="3">
         <v>0.24</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D34" s="3">
         <v>0.22</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E34">
         <v>0.2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F34">
         <v>0.17</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G34">
         <v>0.05</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H34" s="3">
         <v>0.22</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I34" s="3">
         <v>0.2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J34" s="3">
         <v>0.26</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K34">
         <v>-0.09</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L34" s="3">
         <v>0.22</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M34">
         <v>-0.04</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N34" s="3">
         <v>0.27</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O34">
         <v>-0.16</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P34" s="3">
         <v>0.22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B35">
         <v>-0.11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C35">
         <v>-0.02</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D35">
         <v>-0.06</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E35">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F35">
         <v>0.05</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G35">
         <v>-0.02</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H35">
         <v>-0.06</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I35">
         <v>-0.09</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J35">
         <v>0.06</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K35">
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L35">
         <v>-0.06</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M35">
         <v>-0.12</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N35">
         <v>-0.01</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O35" s="3">
         <v>-0.26</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P35">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="43" spans="1:16" ht="17">
+      <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B44">
         <v>0.05</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C44">
         <v>-0.06</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E44">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G44">
         <v>0.01</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I44">
         <v>0.18</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J44">
         <v>0.1</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K44">
         <v>-0.05</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M44" s="3">
         <v>-0.31</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N44">
         <v>0.18</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O44">
         <v>0.05</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P44">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B45">
         <v>0.05</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C45">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D45">
         <v>0.08</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F45">
         <v>0.09</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G45">
         <v>0.02</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H45">
         <v>0.08</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I45">
         <v>0.12</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K45">
         <v>0.01</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L45">
         <v>0.08</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M45" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N45">
         <v>0.13</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O45">
         <v>0.01</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P45">
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B46">
         <v>-0.12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C46">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D46">
         <v>0.05</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E46">
         <v>-0.1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F46">
         <v>0.06</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G46">
         <v>0.1</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H46">
         <v>0.05</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I46">
         <v>0.06</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J46">
         <v>-0.04</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K46">
         <v>-0.05</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L46">
         <v>0.05</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M46" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N46">
         <v>0.19</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O46">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P46">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B47">
         <v>0.09</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C47">
         <v>-0.01</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E47">
         <v>0.1</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G47">
         <v>0.03</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I47">
         <v>0.18</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J47">
         <v>0.3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K47">
         <v>0.01</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M47" s="3">
         <v>-0.26</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N47">
         <v>0.1</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O47">
         <v>0.17</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P47">
         <v>0.14000000000000001</v>
       </c>
     </row>
